--- a/data/param_tuning/Dataset7/cnn_kernels.xlsx
+++ b/data/param_tuning/Dataset7/cnn_kernels.xlsx
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7852</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5209</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4779</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4657</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6397</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6031</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5923</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8044</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5756</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5213</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5209</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7985</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5863</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5918</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5535</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5553</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5296</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5103</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5631</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5653</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5444</t>
         </is>
       </c>
     </row>
